--- a/medicine/Psychotrope/Freisa_di_Chieri/Freisa_di_Chieri.xlsx
+++ b/medicine/Psychotrope/Freisa_di_Chieri/Freisa_di_Chieri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Freisa di Chieri est un vin italien de la région piémontaise, doté d'une appellation DOC depuis le 20 septembre 1973.
 Seuls ont droit à cette appellation contrôlée, les vins rouges récoltés à l'intérieur de l'aire de production définie par le décret. 
@@ -512,7 +524,9 @@
           <t>Aire de production</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les vignobles autorisés se situent dans la province de Turin, dans les communes d'Andezeno, Arignano, Baldissero Torinese, Chieri, Marentino, Mombello di Torino, Montaldo Torinese, Moriondo Torinese, Pecetto Torinese, Pino Torinese, Pavarolo et Riva presso Chieri. Les vignobles se situent à quelques kilomètres au sud-est de Turin.
 </t>
@@ -543,7 +557,9 @@
           <t>Cépage</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cépage unique est le freisa.
 </t>
@@ -574,7 +590,9 @@
           <t>Vins, appellations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Sous l’appellation, les vins suivants sont autorisés :
 Freisa di Chieri amabile
